--- a/documentation/Feature Lists/HyreDefyer Product Backlog.xlsx
+++ b/documentation/Feature Lists/HyreDefyer Product Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angli\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angli\OneDrive\Desktop\SE2_Project_Group_5\documentation\Feature Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{26F9FD02-FF7A-479E-94BF-B2647C37A7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4AE03A0-C614-4032-8C2A-24A38EDC51CF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2675CF46-6709-4A31-B774-655931A8AACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5904" yWindow="552" windowWidth="17280" windowHeight="9960" xr2:uid="{34CDBDB0-1630-4D59-83E2-4B9EB40A378F}"/>
+    <workbookView xWindow="31200" yWindow="-1350" windowWidth="38700" windowHeight="15285" xr2:uid="{34CDBDB0-1630-4D59-83E2-4B9EB40A378F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>Priority</t>
   </si>
@@ -153,13 +153,19 @@
   </si>
   <si>
     <t>I can view others opinions on them</t>
+  </si>
+  <si>
+    <t>User, Employer, Freelancer</t>
+  </si>
+  <si>
+    <t>Employer, Freelancer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,17 +540,17 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:D26"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
-    <col min="4" max="4" width="67.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" customWidth="1"/>
+    <col min="4" max="4" width="67.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,12 +564,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -572,12 +578,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -586,12 +592,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -600,12 +606,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -614,7 +620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -628,7 +634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -642,7 +648,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -656,12 +662,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -670,12 +676,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -684,7 +690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -698,7 +704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -712,12 +718,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -726,12 +732,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
@@ -740,7 +746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -754,7 +760,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
@@ -768,12 +774,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
